--- a/medicine/Enfance/Pamela_Allen/Pamela_Allen.xlsx
+++ b/medicine/Enfance/Pamela_Allen/Pamela_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Modèle:Vir homonymes
 Pamela Kay Allen MNZM, née le 3 avril 1934 à Auckland, Nouvelle-Zélande, est une écrivaine et illustratrice néo-zélandaise d'histoires pour enfants. 
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née dans la banlieue d'Auckland de Devonport en 1934 de Esma Eileen et William Ewart Griffiths[1],[2], Allen étudie au St Cuthbert's College, puis à l'Elam School of Fine Arts à l'Université d'Auckland où elle obtient un diplôme des Beaux-Arts en 1955.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née dans la banlieue d'Auckland de Devonport en 1934 de Esma Eileen et William Ewart Griffiths Allen étudie au St Cuthbert's College, puis à l'Elam School of Fine Arts à l'Université d'Auckland où elle obtient un diplôme des Beaux-Arts en 1955.
 </t>
         </is>
       </c>
